--- a/TCS DCF & RELATIVE VALUATION.xlsx
+++ b/TCS DCF & RELATIVE VALUATION.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://morningstaronline-my.sharepoint.com/personal/ameya_panchpor_morningstar_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://morningstaronline-my.sharepoint.com/personal/ameya_panchpor_morningstar_com/Documents/Desktop/PERSONAL/Courses/PROJECTS/FINANCIAL MODELING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="856" documentId="13_ncr:1_{E68D1A2C-1B7E-489F-BF2E-C640D4806E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDDE7D07-E5BB-4F1C-9648-8EADE113CDEB}"/>
+  <xr:revisionPtr revIDLastSave="930" documentId="13_ncr:1_{E68D1A2C-1B7E-489F-BF2E-C640D4806E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DBC09A2-E7F5-4928-A4E8-251B06F65E70}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
     <sheet name="DCF" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId3"/>
-    <sheet name="NWC" sheetId="2" r:id="rId4"/>
-    <sheet name="WACC" sheetId="6" r:id="rId5"/>
-    <sheet name="AS1" sheetId="3" r:id="rId6"/>
-    <sheet name="AS2" sheetId="5" r:id="rId7"/>
-    <sheet name="Relative Valuation" sheetId="7" r:id="rId8"/>
+    <sheet name="NWC" sheetId="2" r:id="rId3"/>
+    <sheet name="WACC" sheetId="6" r:id="rId4"/>
+    <sheet name="AS1" sheetId="3" r:id="rId5"/>
+    <sheet name="AS2" sheetId="5" r:id="rId6"/>
+    <sheet name="Relative Valuation" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="10000" calcOnSave="0"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="177">
   <si>
     <t>TATA CONSULTANCY SERVICES</t>
   </si>
@@ -582,6 +581,18 @@
 AND
 RELATIVE VALUATION OF
 TATA CONSULTANCY SERVICES</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>(i) Pre tax cost of debt is calculated by dividing interest expense value to the total debt value</t>
+  </si>
+  <si>
+    <t>(ii) Risk Free Rate is 10 year government bond value collected from investing.com website</t>
+  </si>
+  <si>
+    <t>(iii) Market Risk Premium is collected from Market Risk Premia website</t>
   </si>
 </sst>
 </file>
@@ -596,7 +607,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.000%"/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00&quot;x&quot;"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -849,7 +860,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -979,6 +990,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1000,77 +1073,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1405,7 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B99674-2DF8-49A4-82EC-C116ED130362}">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -1415,296 +1419,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="31" x14ac:dyDescent="0.7">
-      <c r="B1" s="124"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="3" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
     </row>
     <row r="6" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1719,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1788,30 +1792,30 @@
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
       <c r="N7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2534,23 +2538,23 @@
         <f>-G9*G57</f>
         <v>-26498.23</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="4">
         <f>-I9*I57</f>
         <v>-32086.947600000003</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="4">
         <f>-J9*J57</f>
         <v>-35616.511836000005</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="4">
         <f>-K9*K57</f>
         <v>-39178.163019600004</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="4">
         <f>-L9*L57</f>
         <v>-43095.979321560015</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="4">
         <f>-M9*M57</f>
         <v>-46974.61746050042</v>
       </c>
@@ -2602,41 +2606,41 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113">
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="104">
         <f>SUM(E23:E26)</f>
         <v>451051.6728</v>
       </c>
-      <c r="F28" s="113">
+      <c r="F28" s="104">
         <f>SUM(F23:F26)</f>
         <v>382983.0013</v>
       </c>
-      <c r="G28" s="113">
+      <c r="G28" s="104">
         <f>SUM(G23:G26)</f>
         <v>511049.47659999999</v>
       </c>
-      <c r="H28" s="112"/>
-      <c r="I28" s="113">
+      <c r="H28" s="103"/>
+      <c r="I28" s="104">
         <f>SUM(I23:I26)</f>
         <v>432113.36496253754</v>
       </c>
-      <c r="J28" s="113">
+      <c r="J28" s="104">
         <f>SUM(J23:J26)</f>
         <v>637216.83739718411</v>
       </c>
-      <c r="K28" s="113">
+      <c r="K28" s="104">
         <f>SUM(K23:K26)</f>
         <v>708938.13415979047</v>
       </c>
-      <c r="L28" s="113">
+      <c r="L28" s="104">
         <f>SUM(L23:L26)</f>
         <v>779831.94757576915</v>
       </c>
-      <c r="M28" s="113">
+      <c r="M28" s="104">
         <f>SUM(M23:M26)</f>
         <v>859784.3503585346</v>
       </c>
@@ -2647,7 +2651,7 @@
       </c>
       <c r="C30" s="6">
         <f>IFERROR(WACC!C27,0)</f>
-        <v>8.1396106258182763E-2</v>
+        <v>8.1769666468390734E-2</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
@@ -2676,70 +2680,70 @@
       </c>
       <c r="I32" s="58">
         <f>1/(1+$C$30)^I31</f>
-        <v>0.96162910475112595</v>
+        <v>0.96146305397372445</v>
       </c>
       <c r="J32" s="58">
         <f t="shared" ref="J32:M32" si="21">1/(1+$C$30)^J31</f>
-        <v>0.92473053510445191</v>
+        <v>0.92441120415648115</v>
       </c>
       <c r="K32" s="58">
         <f t="shared" si="21"/>
-        <v>0.88924779660852371</v>
+        <v>0.88878721947581862</v>
       </c>
       <c r="L32" s="58">
         <f t="shared" si="21"/>
-        <v>0.85512656255456587</v>
+        <v>0.85453607437003554</v>
       </c>
       <c r="M32" s="58">
         <f t="shared" si="21"/>
-        <v>0.82231459079825486</v>
+        <v>0.82160486379453213</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="115">
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106">
         <f>I28*I32</f>
-        <v>415532.78829992155</v>
-      </c>
-      <c r="J34" s="115">
+        <v>415461.0355397439</v>
+      </c>
+      <c r="J34" s="106">
         <f>J28*J32</f>
-        <v>589253.86702386453</v>
-      </c>
-      <c r="K34" s="115">
+        <v>589050.38396711566</v>
+      </c>
+      <c r="K34" s="106">
         <f>K28*K32</f>
-        <v>630421.67373335164</v>
-      </c>
-      <c r="L34" s="115">
+        <v>630095.15304025507</v>
+      </c>
+      <c r="L34" s="106">
         <f>L28*L32</f>
-        <v>666855.01270069985</v>
-      </c>
-      <c r="M34" s="115">
+        <v>666394.53114973707</v>
+      </c>
+      <c r="M34" s="106">
         <f>M28*M32</f>
-        <v>707013.21623982175</v>
+        <v>706403.00406899408</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="G36" s="83" t="s">
+      <c r="C36" s="115"/>
+      <c r="G36" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="71" t="s">
@@ -2748,13 +2752,13 @@
       <c r="C37" s="72">
         <v>0.03</v>
       </c>
-      <c r="I37" s="85" t="s">
+      <c r="I37" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="71" t="s">
@@ -2762,11 +2766,11 @@
       </c>
       <c r="C38" s="73">
         <f>M28*(1+C37)/(C30-C37)</f>
-        <v>17230446.921809334</v>
+        <v>17106115.246270757</v>
       </c>
       <c r="H38" s="14">
         <f>C46</f>
-        <v>4762.3431943130663</v>
+        <v>4730.2674436665466</v>
       </c>
       <c r="I38" s="56">
         <v>6.1499999999999999E-2</v>
@@ -2775,7 +2779,7 @@
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="K38" s="59">
-        <v>8.14E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="L38" s="56">
         <v>9.1499999999999998E-2</v>
@@ -2790,9 +2794,9 @@
       </c>
       <c r="C39" s="75">
         <f>SUM(I34:M34)</f>
-        <v>3009076.5579976593</v>
-      </c>
-      <c r="G39" s="81" t="s">
+        <v>3007404.1077658455</v>
+      </c>
+      <c r="G39" s="113" t="s">
         <v>135</v>
       </c>
       <c r="H39" s="55">
@@ -2806,7 +2810,7 @@
         <v>4142.4409728268001</v>
       </c>
       <c r="K39" s="62">
-        <v>3610.4119565790229</v>
+        <v>3591.9773984172862</v>
       </c>
       <c r="L39" s="62">
         <v>3199.887055728303</v>
@@ -2821,9 +2825,9 @@
       </c>
       <c r="C40" s="75">
         <f>C38*M32</f>
-        <v>14168847.909778694</v>
-      </c>
-      <c r="G40" s="82"/>
+        <v>14054467.486965856</v>
+      </c>
+      <c r="G40" s="114"/>
       <c r="H40" s="55">
         <v>0.02</v>
       </c>
@@ -2834,7 +2838,7 @@
         <v>4818.8974509931722</v>
       </c>
       <c r="K40" s="64">
-        <v>4092.4311562728476</v>
+        <v>4067.9446615302877</v>
       </c>
       <c r="L40" s="64">
         <v>3557.4983343728263</v>
@@ -2849,9 +2853,9 @@
       </c>
       <c r="C41" s="73">
         <f>SUM(C39:C40)</f>
-        <v>17177924.467776354</v>
-      </c>
-      <c r="G41" s="82"/>
+        <v>17061871.5947317</v>
+      </c>
+      <c r="G41" s="114"/>
       <c r="H41" s="60">
         <v>0.03</v>
       </c>
@@ -2862,7 +2866,7 @@
         <v>5821.3570511674325</v>
       </c>
       <c r="K41" s="65">
-        <v>4762.006464796953</v>
+        <v>4727.683068702363</v>
       </c>
       <c r="L41" s="64">
         <v>4031.405963796054</v>
@@ -2878,7 +2882,7 @@
       <c r="C42" s="76">
         <v>132860</v>
       </c>
-      <c r="G42" s="82"/>
+      <c r="G42" s="114"/>
       <c r="H42" s="55">
         <v>0.04</v>
       </c>
@@ -2889,7 +2893,7 @@
         <v>7460.2989371666208</v>
       </c>
       <c r="K42" s="64">
-        <v>5755.0481059413996</v>
+        <v>5703.0857855261484</v>
       </c>
       <c r="L42" s="64">
         <v>4689.3553910535466</v>
@@ -2906,7 +2910,7 @@
         <f>WACC!C5</f>
         <v>80210</v>
       </c>
-      <c r="G43" s="82"/>
+      <c r="G43" s="114"/>
       <c r="H43" s="55">
         <v>0.05</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>10623.837926420869</v>
       </c>
       <c r="K43" s="64">
-        <v>7380.6003465409085</v>
+        <v>7291.9493305409951</v>
       </c>
       <c r="L43" s="64">
         <v>5664.3888796399506</v>
@@ -2932,7 +2936,7 @@
       </c>
       <c r="C44" s="73">
         <f>C41+C42-C43</f>
-        <v>17230574.467776354</v>
+        <v>17114521.5947317</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.35">
@@ -2949,7 +2953,7 @@
       </c>
       <c r="C46" s="73">
         <f>C44/C45</f>
-        <v>4762.3431943130663</v>
+        <v>4730.2674436665466</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
@@ -3354,99 +3358,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE39C66C-16EE-40D2-B1DB-58DA0BFF10FD}">
-  <dimension ref="A2:E11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="122"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="118"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="118"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="118"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="118"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="118"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="118"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="118"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="118"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="118"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2DB612-5ECE-45D3-9261-1E78B1005EF3}">
   <dimension ref="B1:M40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M3"/>
     </sheetView>
   </sheetViews>
@@ -3508,19 +3423,19 @@
       <c r="M3" s="32"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="I5" s="84" t="s">
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="I5" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D6" s="8">
@@ -4555,12 +4470,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE1DA85-2216-4E91-B521-8168DB227819}">
-  <dimension ref="B1:M30"/>
+  <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4629,15 +4544,15 @@
       <c r="C5" s="4">
         <v>80210</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
     </row>
     <row r="6" spans="2:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
@@ -4646,25 +4561,25 @@
       <c r="C6" s="4">
         <v>13945900</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="87" t="s">
+      <c r="J6" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="87" t="s">
+      <c r="K6" s="119" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4676,13 +4591,13 @@
         <f>SUM(C5:C6)</f>
         <v>14026110</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="E8" s="23" t="s">
@@ -4710,10 +4625,10 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="115"/>
       <c r="E9" s="23" t="s">
         <v>104</v>
       </c>
@@ -4837,10 +4752,10 @@
       <c r="K13" s="47"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="115"/>
       <c r="E14" s="23" t="s">
         <v>108</v>
       </c>
@@ -4862,8 +4777,8 @@
         <v>86</v>
       </c>
       <c r="C15" s="6">
-        <f>778/C5</f>
-        <v>9.6995387108839305E-3</v>
+        <f>7780/C5</f>
+        <v>9.6995387108839301E-2</v>
       </c>
       <c r="D15" t="s">
         <v>87</v>
@@ -4898,19 +4813,19 @@
       </c>
       <c r="C17" s="41">
         <f>C15*(1-C16)</f>
-        <v>7.2581648173544447E-3</v>
+        <v>7.2581648173544441E-2</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
     </row>
     <row r="19" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="H19" s="42" t="s">
@@ -4927,10 +4842,10 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="115"/>
       <c r="E20" t="s">
         <v>110</v>
       </c>
@@ -4980,15 +4895,15 @@
         <f>K20</f>
         <v>0.79064703799253744</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
@@ -4998,18 +4913,18 @@
         <f>C21+C22*C23</f>
         <v>8.1822511458490302E-2</v>
       </c>
-      <c r="G24" s="85" t="s">
+      <c r="G24" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="F25" s="57">
         <f>C27</f>
-        <v>8.1396106258182763E-2</v>
+        <v>8.1769666468390734E-2</v>
       </c>
       <c r="G25" s="53">
         <f>H25-0.005</f>
@@ -5032,7 +4947,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="113" t="s">
         <v>118</v>
       </c>
       <c r="F26" s="55">
@@ -5041,19 +4956,19 @@
       </c>
       <c r="G26" s="66">
         <f t="dataTable" ref="G26:K30" dt2D="1" dtr="1" r1="C19" r2="C10"/>
-        <v>7.9902966604688763E-2</v>
+        <v>6.6838269933450767E-2</v>
       </c>
       <c r="H26" s="67">
-        <v>7.9902966604688763E-2</v>
+        <v>6.6838269933450767E-2</v>
       </c>
       <c r="I26" s="67">
-        <v>7.9902966604688763E-2</v>
+        <v>6.6838269933450767E-2</v>
       </c>
       <c r="J26" s="67">
-        <v>7.9902966604688763E-2</v>
+        <v>6.6838269933450767E-2</v>
       </c>
       <c r="K26" s="67">
-        <v>7.9902966604688763E-2</v>
+        <v>6.6838269933450767E-2</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
@@ -5062,31 +4977,31 @@
       </c>
       <c r="C27" s="52">
         <f>(C10*C17)+(C11*C24)</f>
-        <v>8.1396106258182763E-2</v>
-      </c>
-      <c r="E27" s="82"/>
+        <v>8.1769666468390734E-2</v>
+      </c>
+      <c r="E27" s="114"/>
       <c r="F27" s="55">
         <f>F28-0.1</f>
         <v>-0.1</v>
       </c>
       <c r="G27" s="68">
-        <v>8.0628783086424211E-2</v>
+        <v>7.4096434750805212E-2</v>
       </c>
       <c r="H27" s="69">
-        <v>8.0628783086424211E-2</v>
+        <v>7.4096434750805212E-2</v>
       </c>
       <c r="I27" s="69">
-        <v>8.0628783086424211E-2</v>
+        <v>7.4096434750805212E-2</v>
       </c>
       <c r="J27" s="69">
-        <v>8.0628783086424211E-2</v>
+        <v>7.4096434750805212E-2</v>
       </c>
       <c r="K27" s="69">
-        <v>8.0628783086424211E-2</v>
+        <v>7.4096434750805212E-2</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E28" s="82"/>
+      <c r="E28" s="114"/>
       <c r="F28" s="55">
         <v>0</v>
       </c>
@@ -5107,47 +5022,67 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E29" s="82"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="55">
         <f>F28+0.1</f>
         <v>0.1</v>
       </c>
       <c r="G29" s="68">
-        <v>8.2080416049895105E-2</v>
+        <v>8.8612764385514103E-2</v>
       </c>
       <c r="H29" s="69">
-        <v>8.2080416049895105E-2</v>
+        <v>8.8612764385514103E-2</v>
       </c>
       <c r="I29" s="69">
-        <v>8.2080416049895105E-2</v>
+        <v>8.8612764385514103E-2</v>
       </c>
       <c r="J29" s="69">
-        <v>8.2080416049895105E-2</v>
+        <v>8.8612764385514103E-2</v>
       </c>
       <c r="K29" s="69">
-        <v>8.2080416049895105E-2</v>
+        <v>8.8612764385514103E-2</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E30" s="82"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="55">
         <f>F29+0.1</f>
         <v>0.2</v>
       </c>
       <c r="G30" s="68">
-        <v>8.2806232531630553E-2</v>
+        <v>9.5870929202868549E-2</v>
       </c>
       <c r="H30" s="69">
-        <v>8.2806232531630553E-2</v>
+        <v>9.5870929202868549E-2</v>
       </c>
       <c r="I30" s="69">
-        <v>8.2806232531630553E-2</v>
+        <v>9.5870929202868549E-2</v>
       </c>
       <c r="J30" s="69">
-        <v>8.2806232531630553E-2</v>
+        <v>9.5870929202868549E-2</v>
       </c>
       <c r="K30" s="69">
-        <v>8.2806232531630553E-2</v>
+        <v>9.5870929202868549E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5172,7 +5107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F685F18-65F6-44C8-9B67-D2F1EF86BCB4}">
   <dimension ref="B1:I41"/>
   <sheetViews>
@@ -5209,13 +5144,13 @@
       <c r="H2" s="32"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D5" s="3">
@@ -5986,7 +5921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244C368A-4484-4211-83B2-D759EDD91B33}">
   <dimension ref="B1:H47"/>
   <sheetViews>
@@ -6023,13 +5958,13 @@
       <c r="H2" s="32"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D5" s="3">
@@ -6908,11 +6843,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE9DA73-08F4-443E-8319-488AA2485E9E}">
   <dimension ref="B1:Q32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -6994,24 +6929,24 @@
       <c r="Q3" s="32"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="90" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
     </row>
     <row r="6" spans="2:17" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="79" t="s">
@@ -7020,110 +6955,110 @@
       <c r="C6" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="89" t="s">
+      <c r="J6" s="81"/>
+      <c r="K6" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="L6" s="89" t="s">
+      <c r="L6" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="89" t="s">
+      <c r="M6" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="N6" s="88"/>
-      <c r="O6" s="89" t="s">
+      <c r="N6" s="81"/>
+      <c r="O6" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="P6" s="89" t="s">
+      <c r="P6" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="Q6" s="89" t="s">
+      <c r="Q6" s="82" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="94" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="91">
         <v>3832</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="91">
         <v>3618.1</v>
       </c>
-      <c r="F8" s="100">
+      <c r="F8" s="91">
         <v>13864692.300000001</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="91">
         <v>80210</v>
       </c>
-      <c r="H8" s="100">
+      <c r="H8" s="91">
         <v>132860</v>
       </c>
-      <c r="I8" s="101">
+      <c r="I8" s="92">
         <f>F8+G8-H8</f>
         <v>13812042.300000001</v>
       </c>
-      <c r="J8" s="102"/>
-      <c r="K8" s="100">
+      <c r="J8" s="93"/>
+      <c r="K8" s="91">
         <v>2408930</v>
       </c>
-      <c r="L8" s="102">
+      <c r="L8" s="93">
         <v>687000</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="93">
         <v>460990</v>
       </c>
-      <c r="N8" s="103"/>
-      <c r="O8" s="104">
-        <f>I8/K8</f>
+      <c r="N8" s="94"/>
+      <c r="O8" s="95">
+        <f t="shared" ref="O8:O14" si="0">I8/K8</f>
         <v>5.7336835441461567</v>
       </c>
-      <c r="P8" s="104">
-        <f>I8/L8</f>
+      <c r="P8" s="95">
+        <f t="shared" ref="P8:P14" si="1">I8/L8</f>
         <v>20.104865065502185</v>
       </c>
-      <c r="Q8" s="104">
-        <f>F8/M8</f>
+      <c r="Q8" s="95">
+        <f t="shared" ref="Q8:Q14" si="2">F8/M8</f>
         <v>30.075906852643225</v>
       </c>
     </row>
@@ -7134,27 +7069,27 @@
       <c r="C9" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="95">
+      <c r="D9" s="86">
         <v>1488</v>
       </c>
-      <c r="E9" s="95">
+      <c r="E9" s="86">
         <v>4151.8999999999996</v>
       </c>
-      <c r="F9" s="95">
+      <c r="F9" s="86">
         <v>6181756.9000000004</v>
       </c>
-      <c r="G9" s="95">
+      <c r="G9" s="86">
         <v>83590</v>
       </c>
-      <c r="H9" s="95">
+      <c r="H9" s="86">
         <v>147860</v>
       </c>
-      <c r="I9" s="96">
-        <f t="shared" ref="I9:I14" si="0">F9+G9-H9</f>
+      <c r="I9" s="87">
+        <f t="shared" ref="I9:I14" si="3">F9+G9-H9</f>
         <v>6117486.9000000004</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="95">
+      <c r="K9" s="86">
         <v>1536700</v>
       </c>
       <c r="L9" s="4">
@@ -7163,16 +7098,16 @@
       <c r="M9" s="4">
         <v>262480</v>
       </c>
-      <c r="O9" s="105">
-        <f>I9/K9</f>
+      <c r="O9" s="96">
+        <f t="shared" si="0"/>
         <v>3.9809246437170565</v>
       </c>
-      <c r="P9" s="105">
-        <f>I9/L9</f>
+      <c r="P9" s="96">
+        <f t="shared" si="1"/>
         <v>14.975121539252406</v>
       </c>
-      <c r="Q9" s="105">
-        <f>F9/M9</f>
+      <c r="Q9" s="96">
+        <f t="shared" si="2"/>
         <v>23.551344483389212</v>
       </c>
     </row>
@@ -7183,27 +7118,27 @@
       <c r="C10" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="95">
+      <c r="D10" s="86">
         <v>1431</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="86">
         <v>2713.7</v>
       </c>
-      <c r="F10" s="95">
+      <c r="F10" s="86">
         <v>3883390.4</v>
       </c>
-      <c r="G10" s="95">
+      <c r="G10" s="86">
         <v>57560</v>
       </c>
-      <c r="H10" s="95">
+      <c r="H10" s="86">
         <v>201500</v>
       </c>
-      <c r="I10" s="96">
-        <f t="shared" si="0"/>
+      <c r="I10" s="87">
+        <f t="shared" si="3"/>
         <v>3739450.4</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="95">
+      <c r="K10" s="86">
         <v>1099130</v>
       </c>
       <c r="L10" s="4">
@@ -7212,16 +7147,16 @@
       <c r="M10" s="4">
         <v>157100</v>
       </c>
-      <c r="O10" s="105">
-        <f>I10/K10</f>
+      <c r="O10" s="96">
+        <f t="shared" si="0"/>
         <v>3.4021911875756281</v>
       </c>
-      <c r="P10" s="105">
-        <f>I10/L10</f>
+      <c r="P10" s="96">
+        <f t="shared" si="1"/>
         <v>14.554354882652863</v>
       </c>
-      <c r="Q10" s="105">
-        <f>F10/M10</f>
+      <c r="Q10" s="96">
+        <f t="shared" si="2"/>
         <v>24.719225970719286</v>
       </c>
     </row>
@@ -7232,27 +7167,27 @@
       <c r="C11" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="95">
+      <c r="D11" s="86">
         <v>477</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="86">
         <v>5229.8999999999996</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="86">
         <v>2497298.2999999998</v>
       </c>
-      <c r="G11" s="95">
+      <c r="G11" s="86">
         <v>164649</v>
       </c>
-      <c r="H11" s="95">
+      <c r="H11" s="86">
         <v>96953</v>
       </c>
-      <c r="I11" s="96">
-        <f t="shared" si="0"/>
+      <c r="I11" s="87">
+        <f t="shared" si="3"/>
         <v>2564994.2999999998</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="95">
+      <c r="K11" s="86">
         <v>897603</v>
       </c>
       <c r="L11" s="4">
@@ -7261,16 +7196,16 @@
       <c r="M11" s="4">
         <v>111121</v>
       </c>
-      <c r="O11" s="105">
-        <f>I11/K11</f>
+      <c r="O11" s="96">
+        <f t="shared" si="0"/>
         <v>2.8576044197713242</v>
       </c>
-      <c r="P11" s="105">
-        <f>I11/L11</f>
+      <c r="P11" s="96">
+        <f t="shared" si="1"/>
         <v>13.233011406726408</v>
       </c>
-      <c r="Q11" s="105">
-        <f>F11/M11</f>
+      <c r="Q11" s="96">
+        <f t="shared" si="2"/>
         <v>22.473684542075752</v>
       </c>
     </row>
@@ -7281,27 +7216,27 @@
       <c r="C12" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="95">
+      <c r="D12" s="86">
         <v>5025</v>
       </c>
-      <c r="E12" s="95">
+      <c r="E12" s="86">
         <v>296.2</v>
       </c>
-      <c r="F12" s="95">
+      <c r="F12" s="86">
         <v>1490457</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="86">
         <v>20706</v>
       </c>
-      <c r="H12" s="95">
+      <c r="H12" s="86">
         <v>28160</v>
       </c>
-      <c r="I12" s="96">
-        <f t="shared" si="0"/>
+      <c r="I12" s="87">
+        <f t="shared" si="3"/>
         <v>1483003</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="95">
+      <c r="K12" s="86">
         <v>355170</v>
       </c>
       <c r="L12" s="4">
@@ -7310,16 +7245,16 @@
       <c r="M12" s="4">
         <v>45846</v>
       </c>
-      <c r="O12" s="105">
-        <f>I12/K12</f>
+      <c r="O12" s="96">
+        <f t="shared" si="0"/>
         <v>4.175473716811668</v>
       </c>
-      <c r="P12" s="105">
-        <f>I12/L12</f>
+      <c r="P12" s="96">
+        <f t="shared" si="1"/>
         <v>20.918891851099545</v>
       </c>
-      <c r="Q12" s="105">
-        <f>F12/M12</f>
+      <c r="Q12" s="96">
+        <f t="shared" si="2"/>
         <v>32.510077215024211</v>
       </c>
     </row>
@@ -7330,27 +7265,27 @@
       <c r="C13" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="95">
+      <c r="D13" s="86">
         <v>1372</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E13" s="86">
         <v>976.9</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="86">
         <v>1339804.3</v>
       </c>
-      <c r="G13" s="95">
+      <c r="G13" s="86">
         <v>25367</v>
       </c>
-      <c r="H13" s="95">
+      <c r="H13" s="86">
         <v>47355</v>
       </c>
-      <c r="I13" s="96">
-        <f t="shared" si="0"/>
+      <c r="I13" s="87">
+        <f t="shared" si="3"/>
         <v>1317816.3</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="95">
+      <c r="K13" s="86">
         <v>519955</v>
       </c>
       <c r="L13" s="4">
@@ -7359,16 +7294,16 @@
       <c r="M13" s="4">
         <v>23968</v>
       </c>
-      <c r="O13" s="105">
-        <f>I13/K13</f>
+      <c r="O13" s="96">
+        <f t="shared" si="0"/>
         <v>2.5344814455097078</v>
       </c>
-      <c r="P13" s="105">
-        <f>I13/L13</f>
+      <c r="P13" s="96">
+        <f t="shared" si="1"/>
         <v>24.252651048088779</v>
       </c>
-      <c r="Q13" s="105">
-        <f>F13/M13</f>
+      <c r="Q13" s="96">
+        <f t="shared" si="2"/>
         <v>55.899712116154873</v>
       </c>
     </row>
@@ -7379,27 +7314,27 @@
       <c r="C14" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="95">
+      <c r="D14" s="86">
         <v>3769</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="86">
         <v>154</v>
       </c>
-      <c r="F14" s="95">
+      <c r="F14" s="86">
         <v>581199.80000000005</v>
       </c>
-      <c r="G14" s="95">
+      <c r="G14" s="86">
         <v>4511.3</v>
       </c>
-      <c r="H14" s="95">
+      <c r="H14" s="86">
         <v>10228.9</v>
       </c>
-      <c r="I14" s="96">
-        <f t="shared" si="0"/>
+      <c r="I14" s="87">
+        <f t="shared" si="3"/>
         <v>575482.20000000007</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="95">
+      <c r="K14" s="86">
         <v>98215.9</v>
       </c>
       <c r="L14" s="4">
@@ -7408,403 +7343,403 @@
       <c r="M14" s="4">
         <v>10934</v>
       </c>
-      <c r="O14" s="105">
-        <f>I14/K14</f>
+      <c r="O14" s="96">
+        <f t="shared" si="0"/>
         <v>5.859358820720475</v>
       </c>
-      <c r="P14" s="105">
-        <f>I14/L14</f>
+      <c r="P14" s="96">
+        <f t="shared" si="1"/>
         <v>31.905472609233197</v>
       </c>
-      <c r="Q14" s="105">
-        <f>F14/M14</f>
+      <c r="Q14" s="96">
+        <f t="shared" si="2"/>
         <v>53.15527711724895</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="106">
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="97">
         <f>MAX(O8:O14)</f>
         <v>5.859358820720475</v>
       </c>
-      <c r="P16" s="106">
-        <f t="shared" ref="P16:Q16" si="1">MAX(P8:P14)</f>
+      <c r="P16" s="97">
+        <f t="shared" ref="P16:Q16" si="4">MAX(P8:P14)</f>
         <v>31.905472609233197</v>
       </c>
-      <c r="Q16" s="106">
-        <f t="shared" si="1"/>
+      <c r="Q16" s="97">
+        <f t="shared" si="4"/>
         <v>55.899712116154873</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="106">
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="97">
         <f>QUARTILE(O8:O14,3)</f>
         <v>4.9545786304789123</v>
       </c>
-      <c r="P17" s="106">
-        <f t="shared" ref="P17:Q17" si="2">QUARTILE(P8:P14,3)</f>
+      <c r="P17" s="97">
+        <f t="shared" ref="P17:Q17" si="5">QUARTILE(P8:P14,3)</f>
         <v>22.585771449594162</v>
       </c>
-      <c r="Q17" s="106">
-        <f t="shared" si="2"/>
+      <c r="Q17" s="97">
+        <f t="shared" si="5"/>
         <v>42.832677166136577</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="104">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="95">
         <f>AVERAGE(O8:O14)</f>
         <v>4.0776739683217169</v>
       </c>
-      <c r="P18" s="104">
-        <f t="shared" ref="P18:Q18" si="3">AVERAGE(P8:P14)</f>
+      <c r="P18" s="95">
+        <f t="shared" ref="P18:Q18" si="6">AVERAGE(P8:P14)</f>
         <v>19.992052628936481</v>
       </c>
-      <c r="Q18" s="104">
-        <f t="shared" si="3"/>
+      <c r="Q18" s="95">
+        <f t="shared" si="6"/>
         <v>34.626461185322214</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="104">
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="95">
         <f>MEDIAN(O8:O14)</f>
         <v>3.9809246437170565</v>
       </c>
-      <c r="P19" s="104">
-        <f t="shared" ref="P19:Q19" si="4">MEDIAN(P8:P14)</f>
+      <c r="P19" s="95">
+        <f t="shared" ref="P19:Q19" si="7">MEDIAN(P8:P14)</f>
         <v>20.104865065502185</v>
       </c>
-      <c r="Q19" s="104">
-        <f t="shared" si="4"/>
+      <c r="Q19" s="95">
+        <f t="shared" si="7"/>
         <v>30.075906852643225</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="106">
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="97">
         <f>QUARTILE(O8:O14,1)</f>
         <v>3.1298978036734759</v>
       </c>
-      <c r="P20" s="106">
+      <c r="P20" s="97">
         <f>QUARTILE(P8:P14,1)</f>
         <v>14.764738210952634</v>
       </c>
-      <c r="Q20" s="106">
+      <c r="Q20" s="97">
         <f>QUARTILE(Q8:Q14,1)</f>
         <v>24.135285227054247</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="106">
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="97">
         <f>MIN(O8:O14)</f>
         <v>2.5344814455097078</v>
       </c>
-      <c r="P21" s="106">
+      <c r="P21" s="97">
         <f>MIN(P8:P14)</f>
         <v>13.233011406726408</v>
       </c>
-      <c r="Q21" s="106">
+      <c r="Q21" s="97">
         <f>MIN(Q8:Q14)</f>
         <v>22.473684542075752</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="97">
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="88">
         <f>O$19*K$8</f>
         <v>9589768.8019893281</v>
       </c>
-      <c r="P26" s="97">
+      <c r="P26" s="88">
         <f>P$19*L$8</f>
         <v>13812042.300000001</v>
       </c>
-      <c r="Q26" s="97">
+      <c r="Q26" s="88">
         <f>Q29+Q28-Q27</f>
         <v>13917342.300000001</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="97">
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="88">
         <f>$G$8</f>
         <v>80210</v>
       </c>
-      <c r="P27" s="97">
+      <c r="P27" s="88">
         <f>$G$8</f>
         <v>80210</v>
       </c>
-      <c r="Q27" s="97">
+      <c r="Q27" s="88">
         <f>$G$8</f>
         <v>80210</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="97">
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="88">
         <f>$H$8</f>
         <v>132860</v>
       </c>
-      <c r="P28" s="97">
+      <c r="P28" s="88">
         <f>$H$8</f>
         <v>132860</v>
       </c>
-      <c r="Q28" s="97">
+      <c r="Q28" s="88">
         <f>$H$8</f>
         <v>132860</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="97">
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="88">
         <f>O26+O27-O28</f>
         <v>9537118.8019893281</v>
       </c>
-      <c r="P29" s="97">
+      <c r="P29" s="88">
         <f>P26+P27-P28</f>
         <v>13759392.300000001</v>
       </c>
-      <c r="Q29" s="97">
+      <c r="Q29" s="88">
         <f>Q19*M8</f>
         <v>13864692.300000001</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="97">
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="88">
         <f>$E$8</f>
         <v>3618.1</v>
       </c>
-      <c r="P30" s="97">
-        <f t="shared" ref="P30:Q30" si="5">$E$8</f>
+      <c r="P30" s="88">
+        <f t="shared" ref="P30:Q30" si="8">$E$8</f>
         <v>3618.1</v>
       </c>
-      <c r="Q30" s="97">
-        <f t="shared" si="5"/>
+      <c r="Q30" s="88">
+        <f t="shared" si="8"/>
         <v>3618.1</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="97">
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="88">
         <f>O29/$E$8</f>
         <v>2635.9467129126692</v>
       </c>
-      <c r="P31" s="97">
+      <c r="P31" s="88">
         <f>P29/$E$8</f>
         <v>3802.933114065394</v>
       </c>
-      <c r="Q31" s="97">
+      <c r="Q31" s="88">
         <f>Q29/$E$8</f>
         <v>3832.036787264034</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="O32" s="107" t="str">
+      <c r="O32" s="98" t="str">
         <f>IF($D$8&gt;O31,"Over Valued",IF($D$8&lt;O31,"Under Valued","Fairly Valued"))</f>
         <v>Over Valued</v>
       </c>
-      <c r="P32" s="107" t="str">
-        <f t="shared" ref="P32:Q32" si="6">IF($D$8&gt;P31,"Over Valued",IF($D$8&lt;P31,"Under Valued","Fairly Valued"))</f>
+      <c r="P32" s="98" t="str">
+        <f t="shared" ref="P32:Q32" si="9">IF($D$8&gt;P31,"Over Valued",IF($D$8&lt;P31,"Under Valued","Fairly Valued"))</f>
         <v>Over Valued</v>
       </c>
-      <c r="Q32" s="107" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q32" s="98" t="str">
+        <f t="shared" si="9"/>
         <v>Under Valued</v>
       </c>
     </row>
